--- a/fixed/white_18mA/production/ver_0p1_rev_1/CPL_JLCPCB_white.xlsx
+++ b/fixed/white_18mA/production/ver_0p1_rev_1/CPL_JLCPCB_white.xlsx
@@ -183,7 +183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,10 +197,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -224,7 +220,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,240 +253,240 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="1" t="n">
         <v>65.2</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="1" t="n">
         <v>-53.665</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>-90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="1" t="n">
         <v>60.33</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="1" t="n">
         <v>-54.63</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="1" t="n">
         <v>67.14</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="1" t="n">
         <v>-53.65</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="1" t="n">
         <v>63.15</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="1" t="n">
         <v>-64.95</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="1" t="n">
         <v>61.925</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="1" t="n">
         <v>-64.955</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="1" t="n">
         <v>62.7</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="1" t="n">
         <v>-60</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="n">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>-90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="1" t="n">
         <v>52.78</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="1" t="n">
         <v>-60</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>90</v>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>-90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="1" t="n">
         <v>72.62</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="1" t="n">
         <v>-60</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="n">
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-64.1625</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>68.87</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-63.05</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>-90</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>58.55</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>-64.1625</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>68.87</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>-63.05</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>-90</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="1" t="n">
         <v>65.965</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="1" t="n">
         <v>-66.975</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4" t="n">
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="1" t="n">
         <v>68.88</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="1" t="n">
         <v>-66.12</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4" t="n">
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="1" t="n">
         <v>62.825</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="1" t="n">
         <v>-54.74</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4" t="n">
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="1" t="n">
         <v>65.9625</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="1" t="n">
         <v>-64.425</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="n">
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>180</v>
       </c>
     </row>
